--- a/data-raw/data/Resultat.xlsx
+++ b/data-raw/data/Resultat.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
   <si>
     <t>VET - Résultat (code)</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Acc etp - dérog</t>
+  </si>
+  <si>
+    <t>AJAS</t>
+  </si>
+  <si>
+    <t>Accès étape san</t>
   </si>
   <si>
     <t>AJD</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <cols>
     <col min="1" max="1" width="1.0008" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
@@ -673,15 +679,15 @@
         <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -689,12 +695,12 @@
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>54</v>
@@ -721,36 +727,36 @@
         <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
@@ -758,15 +764,15 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>66</v>
@@ -921,12 +927,12 @@
         <v>103</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>105</v>
@@ -956,7 +962,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
